--- a/4.4.4/excel/fp.xlsx
+++ b/4.4.4/excel/fp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MIPT\Labs\PhysLabs4\4.4.4\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8991B5B-4723-4174-8D56-10F5E7EA25D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A43587C-19F1-4E29-BE6F-47DCB513E682}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>d_i</t>
   </si>
@@ -129,15 +129,22 @@
   <si>
     <t>N_t</t>
   </si>
+  <si>
+    <t>\sigma_{d_i^2}</t>
+  </si>
+  <si>
+    <t>\sigma_d</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -177,15 +184,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -260,48 +268,12 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.18743219597550301"/>
-                  <c:y val="2.0749489647127442E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист2!$H$2:$H$7</c:f>
+              <c:f>Лист2!$J$2:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -544,6 +516,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -603,50 +576,14 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.31570384951881014"/>
-                  <c:y val="-3.1831073199183435E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист2!$D$19:$D$24</c:f>
+              <c:f>Лист2!$F$19:$F$24</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.96618357487923023</c:v>
@@ -663,7 +600,7 @@
                 <c:pt idx="4">
                   <c:v>0.57306590257879508</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0.00000">
                   <c:v>0.19821605550049493</c:v>
                 </c:pt>
               </c:numCache>
@@ -673,7 +610,7 @@
             <c:numRef>
               <c:f>Лист2!$B$19:$B$24</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>33.632500000000007</c:v>
@@ -735,7 +672,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -797,7 +734,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -887,6 +824,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2006,16 +1944,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>164659</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>175259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>410817</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>59634</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2042,16 +1980,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>126799</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>5940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>390939</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>13251</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2077,6 +2015,613 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08431</cdr:x>
+      <cdr:y>0.05436</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.19404</cdr:x>
+      <cdr:y>0.19697</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEEA9C6F-11F8-4F66-B925-AFA66D536D62}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="483305" y="183671"/>
+              <a:ext cx="629043" cy="481898"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>, </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>м</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>м</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEEA9C6F-11F8-4F66-B925-AFA66D536D62}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="483305" y="183671"/>
+              <a:ext cx="629043" cy="481898"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑^2, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>мм</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^2</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.91917</cdr:x>
+      <cdr:y>0.82994</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97051</cdr:x>
+      <cdr:y>0.9077</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135A05B1-8B06-4F43-837C-BE7259AB8372}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="5269190" y="2804424"/>
+              <a:ext cx="294290" cy="262758"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑖</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135A05B1-8B06-4F43-837C-BE7259AB8372}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="5269190" y="2804424"/>
+              <a:ext cx="294290" cy="262758"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.10621</cdr:x>
+      <cdr:y>0.07595</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.26522</cdr:x>
+      <cdr:y>0.35154</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76929A1D-2755-43D6-90C4-982202D50256}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="610754" y="252020"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.09341</cdr:x>
+      <cdr:y>0.03319</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.20765</cdr:x>
+      <cdr:y>0.13614</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5DCBCD9-45E9-4666-A8E6-38B795BA522B}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="537182" y="110130"/>
+              <a:ext cx="656896" cy="341587"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:bar>
+                      <m:barPr>
+                        <m:pos m:val="top"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:barPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:bar>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>, </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>мм</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1200" i="1"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5DCBCD9-45E9-4666-A8E6-38B795BA522B}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="537182" y="110130"/>
+              <a:ext cx="656896" cy="341587"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>¯𝑑, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>мм</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1200" i="1"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.81814</cdr:x>
+      <cdr:y>0.78302</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9698</cdr:x>
+      <cdr:y>0.92804</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6857594C-0906-45D9-99D0-AE280E38D1E0}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="4704760" y="2598111"/>
+              <a:ext cx="872131" cy="481191"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>Δ</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>, </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>м</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>м</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−1</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6857594C-0906-45D9-99D0-AE280E38D1E0}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="4704760" y="2598111"/>
+              <a:ext cx="872131" cy="481191"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1/Δ𝑑, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>мм</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^(−1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2356,8 +2901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA07482D-3019-4FC1-B389-B17E3E7C8002}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="G9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2366,7 +2911,7 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2389,19 +2934,25 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1">
+      <c r="L1">
         <v>94</v>
       </c>
-      <c r="K1">
+      <c r="M1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>163.59</v>
       </c>
@@ -2419,27 +2970,35 @@
         <v>33.115000000000009</v>
       </c>
       <c r="F2">
-        <f>C2-D2</f>
+        <f t="shared" ref="F2:F7" si="0">C2-D2</f>
         <v>34.150000000000006</v>
       </c>
       <c r="G2">
-        <f>F2*F2</f>
+        <f t="shared" ref="G2:G7" si="1">F2*F2</f>
         <v>1166.2225000000003</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
+        <f>2*F2*I2</f>
+        <v>6.8300000000000013E-2</v>
+      </c>
+      <c r="I2">
+        <f>2*0.0005</f>
+        <v>1E-3</v>
+      </c>
+      <c r="J2">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>4</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.1</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>162</v>
       </c>
@@ -2453,31 +3012,39 @@
         <v>131.67500000000001</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E7" si="0">A3-B3</f>
+        <f t="shared" ref="E3:E7" si="2">A3-B3</f>
         <v>29.72999999999999</v>
       </c>
       <c r="F3">
-        <f>C3-D3</f>
+        <f t="shared" si="0"/>
         <v>30.839999999999975</v>
       </c>
       <c r="G3">
-        <f>F3*F3</f>
+        <f t="shared" si="1"/>
         <v>951.1055999999985</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H7" si="3">2*F3*I3</f>
+        <v>6.167999999999995E-2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I7" si="4">2*0.0005</f>
+        <v>1E-3</v>
+      </c>
+      <c r="J3">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>5</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>5893</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>160.09</v>
       </c>
@@ -2491,22 +3058,30 @@
         <v>133.48500000000001</v>
       </c>
       <c r="E4">
+        <f t="shared" si="2"/>
+        <v>26.015000000000015</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
-        <v>26.015000000000015</v>
-      </c>
-      <c r="F4">
-        <f>C4-D4</f>
         <v>27.179999999999978</v>
       </c>
       <c r="G4">
-        <f>F4*F4</f>
+        <f t="shared" si="1"/>
         <v>738.75239999999883</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
+        <f t="shared" si="3"/>
+        <v>5.4359999999999957E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="J4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>157.88</v>
       </c>
@@ -2520,22 +3095,30 @@
         <v>135.63</v>
       </c>
       <c r="E5">
+        <f t="shared" si="2"/>
+        <v>21.495000000000005</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>21.495000000000005</v>
-      </c>
-      <c r="F5">
-        <f>C5-D5</f>
         <v>23.050000000000011</v>
       </c>
       <c r="G5">
-        <f>F5*F5</f>
+        <f t="shared" si="1"/>
         <v>531.30250000000058</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
+        <f t="shared" si="3"/>
+        <v>4.6100000000000023E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="J5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>155.095</v>
       </c>
@@ -2549,22 +3132,30 @@
         <v>138.33000000000001</v>
       </c>
       <c r="E6">
+        <f t="shared" si="2"/>
+        <v>15.72999999999999</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>15.72999999999999</v>
-      </c>
-      <c r="F6">
-        <f>C6-D6</f>
         <v>17.474999999999994</v>
       </c>
       <c r="G6">
-        <f>F6*F6</f>
+        <f t="shared" si="1"/>
         <v>305.37562499999979</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
+        <f t="shared" si="3"/>
+        <v>3.4949999999999988E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="J6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>149.69499999999999</v>
       </c>
@@ -2578,22 +3169,30 @@
         <v>142.22</v>
       </c>
       <c r="E7">
+        <f t="shared" si="2"/>
+        <v>4.7949999999999875</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>4.7949999999999875</v>
-      </c>
-      <c r="F7">
-        <f>C7-D7</f>
         <v>9.8400000000000034</v>
       </c>
       <c r="G7">
-        <f>F7*F7</f>
+        <f t="shared" si="1"/>
         <v>96.825600000000065</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9680000000000007E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="J7">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2601,17 +3200,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
-        <f>_xlfn.COVARIANCE.P(H2:H7,G2:G7)/_xlfn.VAR.P(H2:H7)</f>
+        <f>_xlfn.COVARIANCE.P(J2:J7,G2:G7)/_xlfn.VAR.P(J2:J7)</f>
         <v>214.04640928571416</v>
       </c>
       <c r="B11" s="4">
-        <f>1/SQRT(6) * SQRT(_xlfn.VAR.P(G2:G7)/_xlfn.VAR.P(H2:H7) - A11^2)</f>
+        <f>1/SQRT(6) * SQRT(_xlfn.VAR.P(G2:G7)/_xlfn.VAR.P(J2:J7) - A11^2)</f>
         <v>0.84306541441839833</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2619,17 +3218,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <f>4*J1^2*J3*0.0000001/A11</f>
+        <f>4*L1^2*L3*0.0000001/A11</f>
         <v>9.7307024535029707E-2</v>
       </c>
       <c r="B15" s="1">
-        <f>SQRT(SUMSQ(8*J1*K1*J3*0.0000001/A11,4*J1^2*K3*0.0000001/A11,4*J1^2*J3*0.0000001*B11/A11^2))</f>
+        <f>SQRT(SUMSQ(8*L1*M1*L3*0.0000001/A11,4*L1^2*M3*0.0000001/A11,4*L1^2*L3*0.0000001*B11/A11^2))</f>
         <v>1.1038836209581874E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -2637,115 +3236,196 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
         <v>17</v>
       </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <f>AVERAGE(E2:F2)</f>
         <v>33.632500000000007</v>
       </c>
       <c r="C19">
+        <f>0.0005</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D19">
         <f>F2-E2</f>
         <v>1.0349999999999966</v>
       </c>
-      <c r="D19">
-        <f>1/C19</f>
+      <c r="E19">
+        <f>2*0.0005</f>
+        <v>1E-3</v>
+      </c>
+      <c r="F19" s="1">
+        <f>1/D19</f>
         <v>0.96618357487923023</v>
       </c>
+      <c r="G19" s="1">
+        <f>E19/D19^2</f>
+        <v>9.335107003664091E-4</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
-      <c r="B20">
-        <f t="shared" ref="B20:B24" si="1">AVERAGE(E3:F3)</f>
+      <c r="B20" s="1">
+        <f t="shared" ref="B20:B24" si="5">AVERAGE(E3:F3)</f>
         <v>30.284999999999982</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:C24" si="2">F3-E3</f>
+        <f t="shared" ref="C20:C24" si="6">0.0005</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D20">
+        <f>F3-E3</f>
         <v>1.1099999999999852</v>
       </c>
-      <c r="D20">
-        <f t="shared" ref="D20:D24" si="3">1/C20</f>
+      <c r="E20">
+        <f t="shared" ref="E20:E24" si="7">2*0.0005</f>
+        <v>1E-3</v>
+      </c>
+      <c r="F20" s="1">
+        <f>1/D20</f>
         <v>0.9009009009009129</v>
       </c>
+      <c r="G20" s="1">
+        <f t="shared" ref="G20:G24" si="8">E20/D20^2</f>
+        <v>8.1162243324407659E-4</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
-      <c r="B21">
-        <f t="shared" si="1"/>
+      <c r="B21" s="1">
+        <f t="shared" si="5"/>
         <v>26.597499999999997</v>
       </c>
       <c r="C21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D21">
+        <f>F4-E4</f>
         <v>1.1649999999999636</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="3"/>
+      <c r="E21">
+        <f t="shared" si="7"/>
+        <v>1E-3</v>
+      </c>
+      <c r="F21" s="1">
+        <f>1/D21</f>
         <v>0.85836909871247313</v>
       </c>
+      <c r="G21" s="1">
+        <f t="shared" si="8"/>
+        <v>7.3679750962446348E-4</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
-      <c r="B22">
-        <f t="shared" si="1"/>
+      <c r="B22" s="1">
+        <f t="shared" si="5"/>
         <v>22.272500000000008</v>
       </c>
       <c r="C22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D22">
+        <f>F5-E5</f>
         <v>1.5550000000000068</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="3"/>
+      <c r="E22">
+        <f t="shared" si="7"/>
+        <v>1E-3</v>
+      </c>
+      <c r="F22" s="1">
+        <f>1/D22</f>
         <v>0.64308681672025436</v>
       </c>
+      <c r="G22" s="1">
+        <f t="shared" si="8"/>
+        <v>4.1356065383939006E-4</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
-      <c r="B23">
-        <f t="shared" si="1"/>
+      <c r="B23" s="1">
+        <f t="shared" si="5"/>
         <v>16.602499999999992</v>
       </c>
       <c r="C23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D23">
+        <f>F6-E6</f>
         <v>1.7450000000000045</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="3"/>
+      <c r="E23">
+        <f t="shared" si="7"/>
+        <v>1E-3</v>
+      </c>
+      <c r="F23" s="1">
+        <f>1/D23</f>
         <v>0.57306590257879508</v>
       </c>
+      <c r="G23" s="1">
+        <f t="shared" si="8"/>
+        <v>3.2840452869844903E-4</v>
+      </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="B24">
-        <f t="shared" si="1"/>
+      <c r="B24" s="1">
+        <f t="shared" si="5"/>
         <v>7.3174999999999955</v>
       </c>
       <c r="C24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D24">
+        <f>F7-E7</f>
         <v>5.0450000000000159</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="3"/>
+      <c r="E24">
+        <f t="shared" si="7"/>
+        <v>1E-3</v>
+      </c>
+      <c r="F24" s="8">
+        <f>1/D24</f>
         <v>0.19821605550049493</v>
       </c>
+      <c r="G24" s="8">
+        <f t="shared" si="8"/>
+        <v>3.9289604658175285E-5</v>
+      </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2759,25 +3439,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
-        <f>_xlfn.COVARIANCE.P(D19:D24,B19:B24)/_xlfn.VAR.P(D19:D24)</f>
+        <f>_xlfn.COVARIANCE.P(F19:F24,B19:B24)/_xlfn.VAR.P(F19:F24)</f>
         <v>33.363326130354565</v>
       </c>
       <c r="B28" s="5">
-        <f>1/SQRT(6) * SQRT(_xlfn.VAR.P(B19:B24)/_xlfn.VAR.P(D19:D24)-A28^2)</f>
+        <f>1/SQRT(6) * SQRT(_xlfn.VAR.P(B19:B24)/_xlfn.VAR.P(F19:F24)-A28^2)</f>
         <v>2.3373082712830802</v>
       </c>
       <c r="D28">
-        <f>J3*0.0000001*A28/(4*J1^2)</f>
+        <f>L3*0.0000001*A28/(4*L1^2)</f>
         <v>5.5627569286492598E-7</v>
       </c>
       <c r="E28" s="6">
-        <f>SQRT(SUMSQ(K3*0.0000001*A28/(4*J1^2),J3*0.0000001*B28/(4*J1^2),J3*0.0000001*A28*K1/(2*J1^3)))</f>
+        <f>SQRT(SUMSQ(M3*0.0000001*A28/(4*L1^2),L3*0.0000001*B28/(4*L1^2),L3*0.0000001*A28*M1/(2*L1^3)))</f>
         <v>3.9417357701713274E-8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -2831,27 +3511,27 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <f>C19/(2*$D$29)</f>
+        <f>D19/(2*$D$29)</f>
         <v>9.3029410890627717E-2</v>
       </c>
       <c r="B35" s="2">
-        <f>SQRT(SUMSQ(0.005/(2*$D$29),C19*$E$29/(2*$D$29^2)))</f>
+        <f>SQRT(SUMSQ(0.005/(2*$D$29),D19*$E$29/(2*$D$29^2)))</f>
         <v>6.6073095542113708E-3</v>
       </c>
       <c r="C35" s="2">
-        <f>2*$J$1^2/($J$3*B19)</f>
+        <f>2*$L$1^2/($L$3*B19)</f>
         <v>8.9164116554180745E-2</v>
       </c>
       <c r="D35" s="2">
-        <f>SQRT(SUMSQ(2*2*$J$1*$K$1/($J$3*B19),2*$J$1^2*$K$3/($J$3^2*B19),2*$J$1^2*0.01/($J$3*B19^2)))</f>
+        <f>SQRT(SUMSQ(2*2*$L$1*$M$1/($L$3*B19),2*$L$1^2*$M$3/($L$3^2*B19),2*$L$1^2*0.01/($L$3*B19^2)))</f>
         <v>9.4895499962381982E-4</v>
       </c>
       <c r="F35" s="5">
-        <f>4*J1^2/(N35*L35)</f>
+        <f>4*L1^2/(N35*L35)</f>
         <v>5058.9717164776703</v>
       </c>
       <c r="G35" s="5">
-        <f>SQRT(SUMSQ(8*J1*K1/(N35*L35),4*J1^2*O35/(L35*N35^2),4*J1^2*M35/(L35^2*N35)))</f>
+        <f>SQRT(SUMSQ(8*L1*M1/(N35*L35),4*L1^2*O35/(L35*N35^2),4*L1^2*M35/(L35^2*N35)))</f>
         <v>54.290909025548324</v>
       </c>
       <c r="J35">
@@ -2878,37 +3558,37 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <f t="shared" ref="A36:A40" si="4">C20/(2*$D$29)</f>
+        <f>D20/(2*$D$29)</f>
         <v>9.9770672549367861E-2</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B40" si="5">SQRT(SUMSQ(0.005/(2*$D$29),C20*$E$29/(2*$D$29^2)))</f>
+        <f>SQRT(SUMSQ(0.005/(2*$D$29),D20*$E$29/(2*$D$29^2)))</f>
         <v>7.0839594990895335E-3</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" ref="C36:C40" si="6">2*$J$1^2/($J$3*B20)</f>
+        <f>2*$L$1^2/($L$3*B20)</f>
         <v>9.9019717682301028E-2</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D40" si="7">SQRT(SUMSQ(2*2*$J$1*$K$1/($J$3*B20),2*$J$1^2*$K$3/($J$3^2*B20),2*$J$1^2*0.01/($J$3*B20^2)))</f>
+        <f>SQRT(SUMSQ(2*2*$L$1*$M$1/($L$3*B20),2*$L$1^2*$M$3/($L$3^2*B20),2*$L$1^2*0.01/($L$3*B20^2)))</f>
         <v>1.0539420326260019E-3</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <f t="shared" si="4"/>
+        <f>D21/(2*$D$29)</f>
         <v>0.10471426443244278</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" si="5"/>
+        <f>SQRT(SUMSQ(0.005/(2*$D$29),D21*$E$29/(2*$D$29^2)))</f>
         <v>7.4335869772841146E-3</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="6"/>
+        <f>2*$L$1^2/($L$3*B21)</f>
         <v>0.11274789547921742</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="7"/>
+        <f>SQRT(SUMSQ(2*2*$L$1*$M$1/($L$3*B21),2*$L$1^2*$M$3/($L$3^2*B21),2*$L$1^2*0.01/($L$3*B21^2)))</f>
         <v>1.2002326604699126E-3</v>
       </c>
       <c r="F37">
@@ -2920,19 +3600,19 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <f t="shared" si="4"/>
+        <f>D22/(2*$D$29)</f>
         <v>0.1397688250579007</v>
       </c>
       <c r="B38" s="3">
-        <f t="shared" si="5"/>
+        <f>SQRT(SUMSQ(0.005/(2*$D$29),D22*$E$29/(2*$D$29^2)))</f>
         <v>9.9141255591451601E-3</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="6"/>
+        <f>2*$L$1^2/($L$3*B22)</f>
         <v>0.13464191940772177</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="7"/>
+        <f>SQRT(SUMSQ(2*2*$L$1*$M$1/($L$3*B22),2*$L$1^2*$M$3/($L$3^2*B22),2*$L$1^2*0.01/($L$3*B22^2)))</f>
         <v>1.433681467436578E-3</v>
       </c>
       <c r="I38" t="s">
@@ -2944,26 +3624,26 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <f t="shared" si="4"/>
+        <f>D23/(2*$D$29)</f>
         <v>0.15684668792671144</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" si="5"/>
+        <f>SQRT(SUMSQ(0.005/(2*$D$29),D23*$E$29/(2*$D$29^2)))</f>
         <v>1.1123143832143812E-2</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" si="6"/>
+        <f>2*$L$1^2/($L$3*B23)</f>
         <v>0.18062413190835633</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="7"/>
+        <f>SQRT(SUMSQ(2*2*$L$1*$M$1/($L$3*B23),2*$L$1^2*$M$3/($L$3^2*B23),2*$L$1^2*0.01/($L$3*B23^2)))</f>
         <v>1.9246716986183144E-3</v>
       </c>
       <c r="F39" t="s">
         <v>29</v>
       </c>
       <c r="G39">
-        <f>2*J2/J3*10000000</f>
+        <f>2*L2/L3*10000000</f>
         <v>339.38571186153064</v>
       </c>
       <c r="I39">
@@ -2976,19 +3656,19 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <f t="shared" si="4"/>
+        <f>D24/(2*$D$29)</f>
         <v>0.45346220091132355</v>
       </c>
       <c r="B40" s="3">
-        <f t="shared" si="5"/>
+        <f>SQRT(SUMSQ(0.005/(2*$D$29),D24*$E$29/(2*$D$29^2)))</f>
         <v>3.2135198865087838E-2</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" si="6"/>
+        <f>2*$L$1^2/($L$3*B24)</f>
         <v>0.40981375469880238</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="7"/>
+        <f>SQRT(SUMSQ(2*2*$L$1*$M$1/($L$3*B24),2*$L$1^2*$M$3/($L$3^2*B24),2*$L$1^2*0.01/($L$3*B24^2)))</f>
         <v>4.3956826673939289E-3</v>
       </c>
     </row>

--- a/4.4.4/excel/fp.xlsx
+++ b/4.4.4/excel/fp.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MIPT\Labs\PhysLabs4\4.4.4\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A43587C-19F1-4E29-BE6F-47DCB513E682}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5854CC7B-61FD-4412-8342-4E063A4A3415}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="39">
   <si>
     <t>d_i</t>
   </si>
@@ -135,6 +136,15 @@
   <si>
     <t>\sigma_d</t>
   </si>
+  <si>
+    <t>avd</t>
+  </si>
+  <si>
+    <t>\Delta D</t>
+  </si>
+  <si>
+    <t>1/\Delta_d</t>
+  </si>
 </sst>
 </file>
 
@@ -213,6 +223,1069 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1166.2225000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>951.1055999999985</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>738.75239999999883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>531.30250000000058</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>305.37562499999979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.825600000000065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1AEF-484D-898D-8446BBD582EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1268040880"/>
+        <c:axId val="1268041712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1268040880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1268041712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1268041712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1268040880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$F$19:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.96618357487923023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9009009009009129</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85836909871247313</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64308681672025436</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57306590257879508</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00000">
+                  <c:v>0.19821605550049493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$B$19:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>33.632500000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.284999999999982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.597499999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.272500000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.602499999999992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3174999999999955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-443B-471E-866A-4DFC1B7D3EE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1269478560"/>
+        <c:axId val="1269480224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1269478560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1269480224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1269480224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1269478560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0.2"/>
+            <c:backward val="0.2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Лист3!$I$2:$I$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.42</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.42</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.42</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.42</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.42</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.42</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Лист3!$I$2:$I$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.42</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.42</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.42</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.42</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.42</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.42</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Лист3!$L$2:$L$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="1">
+                    <c:v>3.0917555761099863E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.7301656832180432E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.10756929255261725</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.16460905349793684</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.24348672997321047</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Лист3!$L$2:$L$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="1">
+                    <c:v>3.0917555761099863E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.7301656832180432E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.10756929255261725</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.16460905349793684</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.24348672997321047</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$K$2:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>0.32102728731942121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50761421319797717</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59880239520957512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74074074074072827</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0">
+                  <c:v>0.90090090090088981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$H$2:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.5500000000000114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.777500000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.314999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.155000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.264999999999986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.594999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A0F-4C11-A12E-28B3CAAF0210}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2098388031"/>
+        <c:axId val="2098386783"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2098388031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2098386783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2098386783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2098388031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -520,7 +1593,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -908,6 +1981,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1425,6 +2618,1554 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1960,11 +4701,13 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F249723-723B-4421-97C1-2AE98C29FB14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE93B03-1100-44AC-A477-8D9470162F1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1996,11 +4739,13 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{931ADD74-3F77-4661-8246-2E6DE59D7638}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2F63D92-FE3A-435D-BA56-586B20A4C176}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2028,8 +4773,8 @@
       <cdr:x>0.19404</cdr:x>
       <cdr:y>0.19697</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="2" name="TextBox 1">
@@ -2054,6 +4799,7 @@
             <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
             <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
             <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2130,7 +4876,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="2" name="TextBox 1">
@@ -2189,8 +4935,8 @@
       <cdr:x>0.97051</cdr:x>
       <cdr:y>0.9077</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="3" name="TextBox 2">
@@ -2215,6 +4961,7 @@
             <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
             <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
             <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2235,7 +4982,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="3" name="TextBox 2">
@@ -2325,8 +5072,8 @@
       <cdr:x>0.20765</cdr:x>
       <cdr:y>0.13614</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="3" name="TextBox 2">
@@ -2351,6 +5098,7 @@
             <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
             <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
             <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2401,7 +5149,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="3" name="TextBox 2">
@@ -2460,8 +5208,8 @@
       <cdr:x>0.9698</cdr:x>
       <cdr:y>0.92804</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="4" name="TextBox 3">
@@ -2486,6 +5234,7 @@
             <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
             <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
             <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2571,7 +5320,1040 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
+      <mc:Fallback xmlns="">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6857594C-0906-45D9-99D0-AE280E38D1E0}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="4704760" y="2598111"/>
+              <a:ext cx="872131" cy="481191"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1/Δ𝑑, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>мм</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^(−1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F123E50-ED34-4609-A4F2-DCA6C3616B0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01402</cdr:x>
+      <cdr:y>0.03571</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.21402</cdr:x>
+      <cdr:y>0.36714</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C18930-777F-495C-8678-1EB777879C11}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="64114" y="98535"/>
+              <a:ext cx="914400" cy="914400"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:bar>
+                      <m:barPr>
+                        <m:pos m:val="top"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:barPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:bar>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>, </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>мм</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
       <mc:Fallback>
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C18930-777F-495C-8678-1EB777879C11}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="64114" y="98535"/>
+              <a:ext cx="914400" cy="914400"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>¯𝑑, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>мм</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.80368</cdr:x>
+      <cdr:y>0.74429</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96</cdr:x>
+      <cdr:y>0.89857</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613212DF-1E2A-4EA1-A481-16667A49E9DC}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="3674417" y="2053459"/>
+              <a:ext cx="714703" cy="425669"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>Δ</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>, </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>м</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>м</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−1</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613212DF-1E2A-4EA1-A481-16667A49E9DC}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="3674417" y="2053459"/>
+              <a:ext cx="714703" cy="425669"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1/Δ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>мм</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^(−1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>164659</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>175259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>410817</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>59634</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F249723-723B-4421-97C1-2AE98C29FB14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>126799</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>5940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>390939</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>13251</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{931ADD74-3F77-4661-8246-2E6DE59D7638}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08431</cdr:x>
+      <cdr:y>0.05436</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.19404</cdr:x>
+      <cdr:y>0.19697</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEEA9C6F-11F8-4F66-B925-AFA66D536D62}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="483305" y="183671"/>
+              <a:ext cx="629043" cy="481898"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>, </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>м</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>м</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEEA9C6F-11F8-4F66-B925-AFA66D536D62}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="483305" y="183671"/>
+              <a:ext cx="629043" cy="481898"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑^2, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>мм</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^2</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.91917</cdr:x>
+      <cdr:y>0.82994</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97051</cdr:x>
+      <cdr:y>0.9077</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135A05B1-8B06-4F43-837C-BE7259AB8372}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="5269190" y="2804424"/>
+              <a:ext cx="294290" cy="262758"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑖</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135A05B1-8B06-4F43-837C-BE7259AB8372}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="5269190" y="2804424"/>
+              <a:ext cx="294290" cy="262758"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.10621</cdr:x>
+      <cdr:y>0.07595</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.26522</cdr:x>
+      <cdr:y>0.35154</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76929A1D-2755-43D6-90C4-982202D50256}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="610754" y="252020"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.09341</cdr:x>
+      <cdr:y>0.03319</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.20765</cdr:x>
+      <cdr:y>0.13614</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5DCBCD9-45E9-4666-A8E6-38B795BA522B}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="537182" y="110130"/>
+              <a:ext cx="656896" cy="341587"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:bar>
+                      <m:barPr>
+                        <m:pos m:val="top"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:barPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:bar>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>, </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>мм</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1200" i="1"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5DCBCD9-45E9-4666-A8E6-38B795BA522B}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="537182" y="110130"/>
+              <a:ext cx="656896" cy="341587"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>¯𝑑, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>мм</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1200" i="1"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.81814</cdr:x>
+      <cdr:y>0.78302</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9698</cdr:x>
+      <cdr:y>0.92804</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6857594C-0906-45D9-99D0-AE280E38D1E0}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="4704760" y="2598111"/>
+              <a:ext cx="872131" cy="481191"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>Δ</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>, </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>м</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>м</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−1</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="4" name="TextBox 3">
@@ -2887,22 +6669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA07482D-3019-4FC1-B389-B17E3E7C8002}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2960,6 +6730,1107 @@
         <v>130.47499999999999</v>
       </c>
       <c r="C2">
+        <v>191.55</v>
+      </c>
+      <c r="D2">
+        <v>155.82</v>
+      </c>
+      <c r="E2">
+        <f>A2-B2</f>
+        <v>33.115000000000009</v>
+      </c>
+      <c r="F2">
+        <f>C2-D2</f>
+        <v>35.730000000000018</v>
+      </c>
+      <c r="G2">
+        <f>F2*F2</f>
+        <v>1276.6329000000012</v>
+      </c>
+      <c r="H2" s="3">
+        <f>2*F2*I2</f>
+        <v>7.1460000000000037E-2</v>
+      </c>
+      <c r="I2">
+        <f>2*0.0005</f>
+        <v>1E-3</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>0.1</v>
+      </c>
+      <c r="M2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>162</v>
+      </c>
+      <c r="B3">
+        <v>132.27000000000001</v>
+      </c>
+      <c r="C3">
+        <v>189.96</v>
+      </c>
+      <c r="D3">
+        <v>157.38999999999999</v>
+      </c>
+      <c r="E3">
+        <f>A3-B3</f>
+        <v>29.72999999999999</v>
+      </c>
+      <c r="F3">
+        <f>C3-D3</f>
+        <v>32.570000000000022</v>
+      </c>
+      <c r="G3">
+        <f>F3*F3</f>
+        <v>1060.8049000000015</v>
+      </c>
+      <c r="H3" s="3">
+        <f>2*F3*I3</f>
+        <v>6.5140000000000045E-2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I7" si="0">2*0.0005</f>
+        <v>1E-3</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>5893</v>
+      </c>
+      <c r="M3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>160.09</v>
+      </c>
+      <c r="B4">
+        <v>134.07499999999999</v>
+      </c>
+      <c r="C4">
+        <v>188.15</v>
+      </c>
+      <c r="D4">
+        <v>159.16</v>
+      </c>
+      <c r="E4">
+        <f>A4-B4</f>
+        <v>26.015000000000015</v>
+      </c>
+      <c r="F4">
+        <f>C4-D4</f>
+        <v>28.990000000000009</v>
+      </c>
+      <c r="G4">
+        <f>F4*F4</f>
+        <v>840.4201000000005</v>
+      </c>
+      <c r="H4" s="3">
+        <f>2*F4*I4</f>
+        <v>5.7980000000000018E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>157.88</v>
+      </c>
+      <c r="B5">
+        <v>136.38499999999999</v>
+      </c>
+      <c r="C5">
+        <v>186.11</v>
+      </c>
+      <c r="D5">
+        <v>161.19</v>
+      </c>
+      <c r="E5">
+        <f>A5-B5</f>
+        <v>21.495000000000005</v>
+      </c>
+      <c r="F5">
+        <f>C5-D5</f>
+        <v>24.920000000000016</v>
+      </c>
+      <c r="G5">
+        <f>F5*F5</f>
+        <v>621.00640000000078</v>
+      </c>
+      <c r="H5" s="3">
+        <f>2*F5*I5</f>
+        <v>4.984000000000003E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>155.095</v>
+      </c>
+      <c r="B6">
+        <v>139.36500000000001</v>
+      </c>
+      <c r="C6">
+        <v>183.55</v>
+      </c>
+      <c r="D6">
+        <v>163.87</v>
+      </c>
+      <c r="E6">
+        <f>A6-B6</f>
+        <v>15.72999999999999</v>
+      </c>
+      <c r="F6">
+        <f>C6-D6</f>
+        <v>19.680000000000007</v>
+      </c>
+      <c r="G6">
+        <f>F6*F6</f>
+        <v>387.30240000000026</v>
+      </c>
+      <c r="H6" s="3">
+        <f>2*F6*I6</f>
+        <v>3.9360000000000013E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>149.69499999999999</v>
+      </c>
+      <c r="B7">
+        <v>144.9</v>
+      </c>
+      <c r="C7">
+        <v>179.85</v>
+      </c>
+      <c r="D7">
+        <v>167.61</v>
+      </c>
+      <c r="E7">
+        <f>A7-B7</f>
+        <v>4.7949999999999875</v>
+      </c>
+      <c r="F7">
+        <f>C7-D7</f>
+        <v>12.239999999999981</v>
+      </c>
+      <c r="G7">
+        <f>F7*F7</f>
+        <v>149.81759999999952</v>
+      </c>
+      <c r="H7" s="3">
+        <f>2*F7*I7</f>
+        <v>2.447999999999996E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f>_xlfn.COVARIANCE.P(J2:J7,G2:G7)/_xlfn.VAR.P(J2:J7)</f>
+        <v>224.97136285714322</v>
+      </c>
+      <c r="B11" s="4">
+        <f>1/SQRT(6) * SQRT(_xlfn.VAR.P(G2:G7)/_xlfn.VAR.P(J2:J7) - A11^2)</f>
+        <v>1.7727595947771222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <f>4*L1^2*L3*0.0000001/A11</f>
+        <v>9.2581646550391902E-2</v>
+      </c>
+      <c r="B15" s="1">
+        <f>SQRT(SUMSQ(8*L1*M1*L3*0.0000001/A11,4*L1^2*M3*0.0000001/A11,4*L1^2*L3*0.0000001*B11/A11^2))</f>
+        <v>1.2256983021175726E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1">
+        <f>AVERAGE(E2:F2)</f>
+        <v>34.422500000000014</v>
+      </c>
+      <c r="C19">
+        <f>0.0005</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D19">
+        <f>F2-E2</f>
+        <v>2.6150000000000091</v>
+      </c>
+      <c r="E19">
+        <f>2*0.0005</f>
+        <v>1E-3</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" ref="F19:F24" si="1">1/D19</f>
+        <v>0.38240917782026634</v>
+      </c>
+      <c r="G19" s="1">
+        <f>E19/D19^2</f>
+        <v>1.4623677928117209E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <f>AVERAGE(E3:F3)</f>
+        <v>31.150000000000006</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:C24" si="2">0.0005</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D20">
+        <f>F3-E3</f>
+        <v>2.8400000000000318</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E24" si="3">2*0.0005</f>
+        <v>1E-3</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.35211267605633406</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" ref="G20:G24" si="4">E20/D20^2</f>
+        <v>1.2398333663955286E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1">
+        <f>AVERAGE(E4:F4)</f>
+        <v>27.502500000000012</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D21">
+        <f>F4-E4</f>
+        <v>2.9749999999999943</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.33613445378151324</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1298637101899628E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <f>AVERAGE(E5:F5)</f>
+        <v>23.20750000000001</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D22">
+        <f>F5-E5</f>
+        <v>3.4250000000000114</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.29197080291970706</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="4"/>
+        <v>8.5246949757578427E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1">
+        <f>AVERAGE(E6:F6)</f>
+        <v>17.704999999999998</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D23">
+        <f>F6-E6</f>
+        <v>3.9500000000000171</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25316455696202422</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="4"/>
+        <v>6.4092292901778009E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1">
+        <f>AVERAGE(E7:F7)</f>
+        <v>8.5174999999999841</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D24">
+        <f>F7-E7</f>
+        <v>7.4449999999999932</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="1"/>
+        <v>0.1343183344526529</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" si="4"/>
+        <v>1.8041414970134727E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <f>_xlfn.COVARIANCE.P(F19:F24,B19:B24)/_xlfn.VAR.P(F19:F24)</f>
+        <v>105.02098380577435</v>
+      </c>
+      <c r="B28" s="5">
+        <f>1/SQRT(6) * SQRT(_xlfn.VAR.P(B19:B24)/_xlfn.VAR.P(F19:F24)-A28^2)</f>
+        <v>6.203343881952927</v>
+      </c>
+      <c r="D28">
+        <f>L3*0.0000001*A28/(4*L1^2)</f>
+        <v>1.7510430555891473E-6</v>
+      </c>
+      <c r="E28" s="6">
+        <f>SQRT(SUMSQ(M3*0.0000001*A28/(4*L1^2),L3*0.0000001*B28/(4*L1^2),L3*0.0000001*A28*M1/(2*L1^3)))</f>
+        <v>1.050942311635793E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="4">
+        <f>D28*10000000</f>
+        <v>17.510430555891471</v>
+      </c>
+      <c r="E29" s="4">
+        <f>E28*10000000</f>
+        <v>1.050942311635793</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" t="s">
+        <v>19</v>
+      </c>
+      <c r="N34" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <f t="shared" ref="A35:A40" si="5">D19/(2*$D$29)</f>
+        <v>7.4669780153412024E-2</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" ref="B35:B40" si="6">SQRT(SUMSQ(0.005/(2*$D$29),D19*$E$29/(2*$D$29^2)))</f>
+        <v>4.483809995871107E-3</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" ref="C35:C40" si="7">2*$L$1^2/($L$3*B19)</f>
+        <v>8.711779068947588E-2</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" ref="D35:D40" si="8">SQRT(SUMSQ(2*2*$L$1*$M$1/($L$3*B19),2*$L$1^2*$M$3/($L$3^2*B19),2*$L$1^2*0.01/($L$3*B19^2)))</f>
+        <v>9.2715996486647989E-4</v>
+      </c>
+      <c r="F35" s="5">
+        <f>4*L1^2/(N35*L35)</f>
+        <v>4067.016477952644</v>
+      </c>
+      <c r="G35" s="5">
+        <f>SQRT(SUMSQ(8*L1*M1/(N35*L35),4*L1^2*O35/(L35*N35^2),4*L1^2*M35/(L35^2*N35)))</f>
+        <v>43.644940529769087</v>
+      </c>
+      <c r="J35">
+        <v>142.52500000000001</v>
+      </c>
+      <c r="K35">
+        <v>141.815</v>
+      </c>
+      <c r="L35">
+        <f>J35-K35</f>
+        <v>0.71000000000000796</v>
+      </c>
+      <c r="M35">
+        <f>0.0005*2</f>
+        <v>1E-3</v>
+      </c>
+      <c r="N35">
+        <f>F7</f>
+        <v>12.239999999999981</v>
+      </c>
+      <c r="O35">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <f t="shared" si="5"/>
+        <v>8.1094522231622099E-2</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="6"/>
+        <v>4.8692305912752245E-3</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="7"/>
+        <v>9.6270052969774769E-2</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0246482592213316E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <f t="shared" si="5"/>
+        <v>8.4949367478546686E-2</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="6"/>
+        <v>5.1004960127650203E-3</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="7"/>
+        <v>0.10903780201830682</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1606908234126883E-3</v>
+      </c>
+      <c r="F37">
+        <v>5050</v>
+      </c>
+      <c r="G37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <f t="shared" si="5"/>
+        <v>9.779885163496603E-2</v>
+      </c>
+      <c r="B38" s="3">
+        <f t="shared" si="6"/>
+        <v>5.8714347916954341E-3</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="7"/>
+        <v>0.12921737153973858</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="8"/>
+        <v>1.3758237287854066E-3</v>
+      </c>
+      <c r="I38" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <f t="shared" si="5"/>
+        <v>0.11278991648412151</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="6"/>
+        <v>6.7709389335771997E-3</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="7"/>
+        <v>0.16937656876636459</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="8"/>
+        <v>1.8044733958776274E-3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39">
+        <f>2*L2/L3*10000000</f>
+        <v>339.38571186153064</v>
+      </c>
+      <c r="I39">
+        <v>0.85</v>
+      </c>
+      <c r="K39">
+        <f>PI()*SQRT(I39)/(1-I39) * G39</f>
+        <v>6553.3238614120328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <f t="shared" si="5"/>
+        <v>0.21258757676564058</v>
+      </c>
+      <c r="B40" s="3">
+        <f t="shared" si="6"/>
+        <v>1.275989562220955E-2</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="7"/>
+        <v>0.35207656589474495</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="8"/>
+        <v>3.7683539876636513E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41">
+        <f>F35/G39</f>
+        <v>11.983464052287465</v>
+      </c>
+      <c r="J41" t="s">
+        <v>33</v>
+      </c>
+      <c r="K41">
+        <f>K39/G39</f>
+        <v>19.309368757650553</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B401A1-45AB-4725-A5DC-56569E8C0634}">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>170.38</v>
+      </c>
+      <c r="C2">
+        <v>176.93</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>6.5500000000000114</v>
+      </c>
+      <c r="G2">
+        <f>D2</f>
+        <v>6.5500000000000114</v>
+      </c>
+      <c r="H2" s="3">
+        <f>AVERAGE(D2,G2)</f>
+        <v>6.5500000000000114</v>
+      </c>
+      <c r="I2">
+        <v>0.42</v>
+      </c>
+      <c r="J2">
+        <f>G2-D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>166.66</v>
+      </c>
+      <c r="C3">
+        <v>180.88</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D7" si="0">C3-B3</f>
+        <v>14.219999999999999</v>
+      </c>
+      <c r="E3">
+        <v>164.94</v>
+      </c>
+      <c r="F3">
+        <v>182.27500000000001</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="1">F3-E3</f>
+        <v>17.335000000000008</v>
+      </c>
+      <c r="H3" s="3">
+        <f>AVERAGE(D3,G3)</f>
+        <v>15.777500000000003</v>
+      </c>
+      <c r="I3">
+        <v>0.42</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J7" si="2">G3-D3</f>
+        <v>3.1150000000000091</v>
+      </c>
+      <c r="K3" s="3">
+        <f>1/J3</f>
+        <v>0.32102728731942121</v>
+      </c>
+      <c r="L3" s="3">
+        <f>0.3*K3*K3</f>
+        <v>3.0917555761099863E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>162.94</v>
+      </c>
+      <c r="C4">
+        <v>184.27</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>21.330000000000013</v>
+      </c>
+      <c r="E4">
+        <v>161.995</v>
+      </c>
+      <c r="F4">
+        <v>185.29499999999999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>23.299999999999983</v>
+      </c>
+      <c r="H4" s="3">
+        <f>AVERAGE(D4,G4)</f>
+        <v>22.314999999999998</v>
+      </c>
+      <c r="I4">
+        <v>0.42</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>1.9699999999999704</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" ref="K4:K7" si="3">1/J4</f>
+        <v>0.50761421319797717</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" ref="L4:L7" si="4">0.3*K4*K4</f>
+        <v>7.7301656832180432E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>160.53</v>
+      </c>
+      <c r="C5">
+        <v>186.85</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>26.319999999999993</v>
+      </c>
+      <c r="E5">
+        <v>159.69999999999999</v>
+      </c>
+      <c r="F5">
+        <v>187.69</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>27.990000000000009</v>
+      </c>
+      <c r="H5" s="3">
+        <f>AVERAGE(D5,G5)</f>
+        <v>27.155000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.42</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>1.6700000000000159</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.59880239520957512</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="4"/>
+        <v>0.10756929255261725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>158.36000000000001</v>
+      </c>
+      <c r="C6">
+        <v>188.95</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>30.589999999999975</v>
+      </c>
+      <c r="E6">
+        <v>157.69</v>
+      </c>
+      <c r="F6">
+        <v>189.63</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>31.939999999999998</v>
+      </c>
+      <c r="H6" s="3">
+        <f>AVERAGE(D6,G6)</f>
+        <v>31.264999999999986</v>
+      </c>
+      <c r="I6">
+        <v>0.42</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>1.3500000000000227</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="3"/>
+        <v>0.74074074074072827</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="4"/>
+        <v>0.16460905349793684</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>156.62</v>
+      </c>
+      <c r="C7">
+        <v>190.66</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>34.039999999999992</v>
+      </c>
+      <c r="E7">
+        <v>156.09</v>
+      </c>
+      <c r="F7">
+        <v>191.24</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>35.150000000000006</v>
+      </c>
+      <c r="H7" s="3">
+        <f>AVERAGE(D7,G7)</f>
+        <v>34.594999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.42</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>1.1100000000000136</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="3"/>
+        <v>0.90090090090088981</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="4"/>
+        <v>0.24348672997321047</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA07482D-3019-4FC1-B389-B17E3E7C8002}">
+  <dimension ref="A1:O41"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1">
+        <v>94</v>
+      </c>
+      <c r="M1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>163.59</v>
+      </c>
+      <c r="B2">
+        <v>130.47499999999999</v>
+      </c>
+      <c r="C2">
         <v>164.03</v>
       </c>
       <c r="D2">
@@ -3264,7 +8135,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D19">
-        <f>F2-E2</f>
+        <f t="shared" ref="D19:D24" si="5">F2-E2</f>
         <v>1.0349999999999966</v>
       </c>
       <c r="E19">
@@ -3272,7 +8143,7 @@
         <v>1E-3</v>
       </c>
       <c r="F19" s="1">
-        <f>1/D19</f>
+        <f t="shared" ref="F19:F24" si="6">1/D19</f>
         <v>0.96618357487923023</v>
       </c>
       <c r="G19" s="1">
@@ -3285,27 +8156,27 @@
         <v>5</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" ref="B20:B24" si="5">AVERAGE(E3:F3)</f>
+        <f t="shared" ref="B20:B24" si="7">AVERAGE(E3:F3)</f>
         <v>30.284999999999982</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:C24" si="6">0.0005</f>
+        <f t="shared" ref="C20:C24" si="8">0.0005</f>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D20">
-        <f>F3-E3</f>
+        <f t="shared" si="5"/>
         <v>1.1099999999999852</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:E24" si="7">2*0.0005</f>
+        <f t="shared" ref="E20:E24" si="9">2*0.0005</f>
         <v>1E-3</v>
       </c>
       <c r="F20" s="1">
-        <f>1/D20</f>
+        <f t="shared" si="6"/>
         <v>0.9009009009009129</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" ref="G20:G24" si="8">E20/D20^2</f>
+        <f t="shared" ref="G20:G24" si="10">E20/D20^2</f>
         <v>8.1162243324407659E-4</v>
       </c>
     </row>
@@ -3314,27 +8185,27 @@
         <v>4</v>
       </c>
       <c r="B21" s="1">
+        <f t="shared" si="7"/>
+        <v>26.597499999999997</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="8"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="5"/>
-        <v>26.597499999999997</v>
-      </c>
-      <c r="C21">
+        <v>1.1649999999999636</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="9"/>
+        <v>1E-3</v>
+      </c>
+      <c r="F21" s="1">
         <f t="shared" si="6"/>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D21">
-        <f>F4-E4</f>
-        <v>1.1649999999999636</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="7"/>
-        <v>1E-3</v>
-      </c>
-      <c r="F21" s="1">
-        <f>1/D21</f>
         <v>0.85836909871247313</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.3679750962446348E-4</v>
       </c>
     </row>
@@ -3343,27 +8214,27 @@
         <v>3</v>
       </c>
       <c r="B22" s="1">
+        <f t="shared" si="7"/>
+        <v>22.272500000000008</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="8"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="5"/>
-        <v>22.272500000000008</v>
-      </c>
-      <c r="C22">
+        <v>1.5550000000000068</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="9"/>
+        <v>1E-3</v>
+      </c>
+      <c r="F22" s="1">
         <f t="shared" si="6"/>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D22">
-        <f>F5-E5</f>
-        <v>1.5550000000000068</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="7"/>
-        <v>1E-3</v>
-      </c>
-      <c r="F22" s="1">
-        <f>1/D22</f>
         <v>0.64308681672025436</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.1356065383939006E-4</v>
       </c>
     </row>
@@ -3372,27 +8243,27 @@
         <v>2</v>
       </c>
       <c r="B23" s="1">
+        <f t="shared" si="7"/>
+        <v>16.602499999999992</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="8"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="5"/>
-        <v>16.602499999999992</v>
-      </c>
-      <c r="C23">
+        <v>1.7450000000000045</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="9"/>
+        <v>1E-3</v>
+      </c>
+      <c r="F23" s="1">
         <f t="shared" si="6"/>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D23">
-        <f>F6-E6</f>
-        <v>1.7450000000000045</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="7"/>
-        <v>1E-3</v>
-      </c>
-      <c r="F23" s="1">
-        <f>1/D23</f>
         <v>0.57306590257879508</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.2840452869844903E-4</v>
       </c>
     </row>
@@ -3401,27 +8272,27 @@
         <v>1</v>
       </c>
       <c r="B24" s="1">
+        <f t="shared" si="7"/>
+        <v>7.3174999999999955</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="8"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="5"/>
-        <v>7.3174999999999955</v>
-      </c>
-      <c r="C24">
+        <v>5.0450000000000159</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="9"/>
+        <v>1E-3</v>
+      </c>
+      <c r="F24" s="8">
         <f t="shared" si="6"/>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D24">
-        <f>F7-E7</f>
-        <v>5.0450000000000159</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="7"/>
-        <v>1E-3</v>
-      </c>
-      <c r="F24" s="8">
-        <f>1/D24</f>
         <v>0.19821605550049493</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.9289604658175285E-5</v>
       </c>
     </row>
@@ -3511,19 +8382,19 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <f>D19/(2*$D$29)</f>
+        <f t="shared" ref="A35:A40" si="11">D19/(2*$D$29)</f>
         <v>9.3029410890627717E-2</v>
       </c>
       <c r="B35" s="2">
-        <f>SQRT(SUMSQ(0.005/(2*$D$29),D19*$E$29/(2*$D$29^2)))</f>
+        <f t="shared" ref="B35:B40" si="12">SQRT(SUMSQ(0.005/(2*$D$29),D19*$E$29/(2*$D$29^2)))</f>
         <v>6.6073095542113708E-3</v>
       </c>
       <c r="C35" s="2">
-        <f>2*$L$1^2/($L$3*B19)</f>
+        <f t="shared" ref="C35:C40" si="13">2*$L$1^2/($L$3*B19)</f>
         <v>8.9164116554180745E-2</v>
       </c>
       <c r="D35" s="2">
-        <f>SQRT(SUMSQ(2*2*$L$1*$M$1/($L$3*B19),2*$L$1^2*$M$3/($L$3^2*B19),2*$L$1^2*0.01/($L$3*B19^2)))</f>
+        <f t="shared" ref="D35:D40" si="14">SQRT(SUMSQ(2*2*$L$1*$M$1/($L$3*B19),2*$L$1^2*$M$3/($L$3^2*B19),2*$L$1^2*0.01/($L$3*B19^2)))</f>
         <v>9.4895499962381982E-4</v>
       </c>
       <c r="F35" s="5">
@@ -3558,37 +8429,37 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <f>D20/(2*$D$29)</f>
+        <f t="shared" si="11"/>
         <v>9.9770672549367861E-2</v>
       </c>
       <c r="B36" s="2">
-        <f>SQRT(SUMSQ(0.005/(2*$D$29),D20*$E$29/(2*$D$29^2)))</f>
+        <f t="shared" si="12"/>
         <v>7.0839594990895335E-3</v>
       </c>
       <c r="C36" s="1">
-        <f>2*$L$1^2/($L$3*B20)</f>
+        <f t="shared" si="13"/>
         <v>9.9019717682301028E-2</v>
       </c>
       <c r="D36" s="1">
-        <f>SQRT(SUMSQ(2*2*$L$1*$M$1/($L$3*B20),2*$L$1^2*$M$3/($L$3^2*B20),2*$L$1^2*0.01/($L$3*B20^2)))</f>
+        <f t="shared" si="14"/>
         <v>1.0539420326260019E-3</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <f>D21/(2*$D$29)</f>
+        <f t="shared" si="11"/>
         <v>0.10471426443244278</v>
       </c>
       <c r="B37" s="2">
-        <f>SQRT(SUMSQ(0.005/(2*$D$29),D21*$E$29/(2*$D$29^2)))</f>
+        <f t="shared" si="12"/>
         <v>7.4335869772841146E-3</v>
       </c>
       <c r="C37" s="1">
-        <f>2*$L$1^2/($L$3*B21)</f>
+        <f t="shared" si="13"/>
         <v>0.11274789547921742</v>
       </c>
       <c r="D37" s="1">
-        <f>SQRT(SUMSQ(2*2*$L$1*$M$1/($L$3*B21),2*$L$1^2*$M$3/($L$3^2*B21),2*$L$1^2*0.01/($L$3*B21^2)))</f>
+        <f t="shared" si="14"/>
         <v>1.2002326604699126E-3</v>
       </c>
       <c r="F37">
@@ -3600,19 +8471,19 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <f>D22/(2*$D$29)</f>
+        <f t="shared" si="11"/>
         <v>0.1397688250579007</v>
       </c>
       <c r="B38" s="3">
-        <f>SQRT(SUMSQ(0.005/(2*$D$29),D22*$E$29/(2*$D$29^2)))</f>
+        <f t="shared" si="12"/>
         <v>9.9141255591451601E-3</v>
       </c>
       <c r="C38" s="1">
-        <f>2*$L$1^2/($L$3*B22)</f>
+        <f t="shared" si="13"/>
         <v>0.13464191940772177</v>
       </c>
       <c r="D38" s="1">
-        <f>SQRT(SUMSQ(2*2*$L$1*$M$1/($L$3*B22),2*$L$1^2*$M$3/($L$3^2*B22),2*$L$1^2*0.01/($L$3*B22^2)))</f>
+        <f t="shared" si="14"/>
         <v>1.433681467436578E-3</v>
       </c>
       <c r="I38" t="s">
@@ -3624,19 +8495,19 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <f>D23/(2*$D$29)</f>
+        <f t="shared" si="11"/>
         <v>0.15684668792671144</v>
       </c>
       <c r="B39" s="2">
-        <f>SQRT(SUMSQ(0.005/(2*$D$29),D23*$E$29/(2*$D$29^2)))</f>
+        <f t="shared" si="12"/>
         <v>1.1123143832143812E-2</v>
       </c>
       <c r="C39" s="2">
-        <f>2*$L$1^2/($L$3*B23)</f>
+        <f t="shared" si="13"/>
         <v>0.18062413190835633</v>
       </c>
       <c r="D39" s="2">
-        <f>SQRT(SUMSQ(2*2*$L$1*$M$1/($L$3*B23),2*$L$1^2*$M$3/($L$3^2*B23),2*$L$1^2*0.01/($L$3*B23^2)))</f>
+        <f t="shared" si="14"/>
         <v>1.9246716986183144E-3</v>
       </c>
       <c r="F39" t="s">
@@ -3656,19 +8527,19 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <f>D24/(2*$D$29)</f>
+        <f t="shared" si="11"/>
         <v>0.45346220091132355</v>
       </c>
       <c r="B40" s="3">
-        <f>SQRT(SUMSQ(0.005/(2*$D$29),D24*$E$29/(2*$D$29^2)))</f>
+        <f t="shared" si="12"/>
         <v>3.2135198865087838E-2</v>
       </c>
       <c r="C40" s="2">
-        <f>2*$L$1^2/($L$3*B24)</f>
+        <f t="shared" si="13"/>
         <v>0.40981375469880238</v>
       </c>
       <c r="D40" s="2">
-        <f>SQRT(SUMSQ(2*2*$L$1*$M$1/($L$3*B24),2*$L$1^2*$M$3/($L$3^2*B24),2*$L$1^2*0.01/($L$3*B24^2)))</f>
+        <f t="shared" si="14"/>
         <v>4.3956826673939289E-3</v>
       </c>
     </row>

--- a/4.4.4/excel/fp.xlsx
+++ b/4.4.4/excel/fp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MIPT\Labs\PhysLabs4\4.4.4\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5854CC7B-61FD-4412-8342-4E063A4A3415}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63284499-94E2-4411-8917-41D2073A48B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -593,7 +593,7 @@
             <c:numRef>
               <c:f>Лист2!$F$19:$F$24</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.96618357487923023</c:v>
@@ -610,7 +610,7 @@
                 <c:pt idx="4">
                   <c:v>0.57306590257879508</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.00000">
+                <c:pt idx="5">
                   <c:v>0.19821605550049493</c:v>
                 </c:pt>
               </c:numCache>
@@ -620,7 +620,7 @@
             <c:numRef>
               <c:f>Лист2!$B$19:$B$24</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>33.632500000000007</c:v>
@@ -1652,11 +1652,157 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Лист2!$C$19:$C$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Лист2!$C$19:$C$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Лист2!$G$19:$G$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>5.6010642021984539E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.8697345994644592E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.4207850577467803E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.4813639230363404E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.9704271721906943E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.3573762794905171E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Лист2!$G$19:$G$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>5.6010642021984539E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.8697345994644592E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.4207850577467803E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.4813639230363404E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.9704271721906943E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.3573762794905171E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Лист2!$F$19:$F$24</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.96618357487923023</c:v>
@@ -1673,7 +1819,7 @@
                 <c:pt idx="4">
                   <c:v>0.57306590257879508</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.00000">
+                <c:pt idx="5">
                   <c:v>0.19821605550049493</c:v>
                 </c:pt>
               </c:numCache>
@@ -1683,7 +1829,7 @@
             <c:numRef>
               <c:f>Лист2!$B$19:$B$24</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>33.632500000000007</c:v>
@@ -5425,8 +5571,8 @@
       <cdr:x>0.21402</cdr:x>
       <cdr:y>0.36714</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="2" name="TextBox 1">
@@ -5451,6 +5597,7 @@
             <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
             <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
             <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5495,7 +5642,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="2" name="TextBox 1">
@@ -5548,8 +5695,8 @@
       <cdr:x>0.96</cdr:x>
       <cdr:y>0.89857</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="3" name="TextBox 2">
@@ -5574,6 +5721,7 @@
             <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
             <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
             <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5659,7 +5807,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="3" name="TextBox 2">
@@ -6671,7 +6819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -6736,19 +6884,19 @@
         <v>155.82</v>
       </c>
       <c r="E2">
-        <f>A2-B2</f>
+        <f t="shared" ref="E2:E7" si="0">A2-B2</f>
         <v>33.115000000000009</v>
       </c>
       <c r="F2">
-        <f>C2-D2</f>
+        <f t="shared" ref="F2:F7" si="1">C2-D2</f>
         <v>35.730000000000018</v>
       </c>
       <c r="G2">
-        <f>F2*F2</f>
+        <f t="shared" ref="G2:G7" si="2">F2*F2</f>
         <v>1276.6329000000012</v>
       </c>
       <c r="H2" s="3">
-        <f>2*F2*I2</f>
+        <f t="shared" ref="H2:H7" si="3">2*F2*I2</f>
         <v>7.1460000000000037E-2</v>
       </c>
       <c r="I2">
@@ -6782,23 +6930,23 @@
         <v>157.38999999999999</v>
       </c>
       <c r="E3">
-        <f>A3-B3</f>
+        <f t="shared" si="0"/>
         <v>29.72999999999999</v>
       </c>
       <c r="F3">
-        <f>C3-D3</f>
+        <f t="shared" si="1"/>
         <v>32.570000000000022</v>
       </c>
       <c r="G3">
-        <f>F3*F3</f>
+        <f t="shared" si="2"/>
         <v>1060.8049000000015</v>
       </c>
       <c r="H3" s="3">
-        <f>2*F3*I3</f>
+        <f t="shared" si="3"/>
         <v>6.5140000000000045E-2</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I7" si="0">2*0.0005</f>
+        <f t="shared" ref="I3:I7" si="4">2*0.0005</f>
         <v>1E-3</v>
       </c>
       <c r="J3">
@@ -6828,23 +6976,23 @@
         <v>159.16</v>
       </c>
       <c r="E4">
-        <f>A4-B4</f>
+        <f t="shared" si="0"/>
         <v>26.015000000000015</v>
       </c>
       <c r="F4">
-        <f>C4-D4</f>
+        <f t="shared" si="1"/>
         <v>28.990000000000009</v>
       </c>
       <c r="G4">
-        <f>F4*F4</f>
+        <f t="shared" si="2"/>
         <v>840.4201000000005</v>
       </c>
       <c r="H4" s="3">
-        <f>2*F4*I4</f>
+        <f t="shared" si="3"/>
         <v>5.7980000000000018E-2</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1E-3</v>
       </c>
       <c r="J4">
@@ -6865,23 +7013,23 @@
         <v>161.19</v>
       </c>
       <c r="E5">
-        <f>A5-B5</f>
+        <f t="shared" si="0"/>
         <v>21.495000000000005</v>
       </c>
       <c r="F5">
-        <f>C5-D5</f>
+        <f t="shared" si="1"/>
         <v>24.920000000000016</v>
       </c>
       <c r="G5">
-        <f>F5*F5</f>
+        <f t="shared" si="2"/>
         <v>621.00640000000078</v>
       </c>
       <c r="H5" s="3">
-        <f>2*F5*I5</f>
+        <f t="shared" si="3"/>
         <v>4.984000000000003E-2</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1E-3</v>
       </c>
       <c r="J5">
@@ -6902,23 +7050,23 @@
         <v>163.87</v>
       </c>
       <c r="E6">
-        <f>A6-B6</f>
+        <f t="shared" si="0"/>
         <v>15.72999999999999</v>
       </c>
       <c r="F6">
-        <f>C6-D6</f>
+        <f t="shared" si="1"/>
         <v>19.680000000000007</v>
       </c>
       <c r="G6">
-        <f>F6*F6</f>
+        <f t="shared" si="2"/>
         <v>387.30240000000026</v>
       </c>
       <c r="H6" s="3">
-        <f>2*F6*I6</f>
+        <f t="shared" si="3"/>
         <v>3.9360000000000013E-2</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1E-3</v>
       </c>
       <c r="J6">
@@ -6939,23 +7087,23 @@
         <v>167.61</v>
       </c>
       <c r="E7">
-        <f>A7-B7</f>
+        <f t="shared" si="0"/>
         <v>4.7949999999999875</v>
       </c>
       <c r="F7">
-        <f>C7-D7</f>
+        <f t="shared" si="1"/>
         <v>12.239999999999981</v>
       </c>
       <c r="G7">
-        <f>F7*F7</f>
+        <f t="shared" si="2"/>
         <v>149.81759999999952</v>
       </c>
       <c r="H7" s="3">
-        <f>2*F7*I7</f>
+        <f t="shared" si="3"/>
         <v>2.447999999999996E-2</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1E-3</v>
       </c>
       <c r="J7">
@@ -7026,7 +7174,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="1">
-        <f>AVERAGE(E2:F2)</f>
+        <f t="shared" ref="B19:B24" si="5">AVERAGE(E2:F2)</f>
         <v>34.422500000000014</v>
       </c>
       <c r="C19">
@@ -7034,7 +7182,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D19">
-        <f>F2-E2</f>
+        <f t="shared" ref="D19:D24" si="6">F2-E2</f>
         <v>2.6150000000000091</v>
       </c>
       <c r="E19">
@@ -7042,7 +7190,7 @@
         <v>1E-3</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" ref="F19:F24" si="1">1/D19</f>
+        <f t="shared" ref="F19:F24" si="7">1/D19</f>
         <v>0.38240917782026634</v>
       </c>
       <c r="G19" s="1">
@@ -7055,27 +7203,27 @@
         <v>5</v>
       </c>
       <c r="B20" s="1">
-        <f>AVERAGE(E3:F3)</f>
+        <f t="shared" si="5"/>
         <v>31.150000000000006</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:C24" si="2">0.0005</f>
+        <f t="shared" ref="C20:C24" si="8">0.0005</f>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D20">
-        <f>F3-E3</f>
+        <f t="shared" si="6"/>
         <v>2.8400000000000318</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:E24" si="3">2*0.0005</f>
+        <f t="shared" ref="E20:E24" si="9">2*0.0005</f>
         <v>1E-3</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.35211267605633406</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" ref="G20:G24" si="4">E20/D20^2</f>
+        <f t="shared" ref="G20:G24" si="10">E20/D20^2</f>
         <v>1.2398333663955286E-4</v>
       </c>
     </row>
@@ -7084,27 +7232,27 @@
         <v>4</v>
       </c>
       <c r="B21" s="1">
-        <f>AVERAGE(E4:F4)</f>
+        <f t="shared" si="5"/>
         <v>27.502500000000012</v>
       </c>
       <c r="C21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D21">
-        <f>F4-E4</f>
+        <f t="shared" si="6"/>
         <v>2.9749999999999943</v>
       </c>
       <c r="E21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1E-3</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.33613445378151324</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.1298637101899628E-4</v>
       </c>
     </row>
@@ -7113,27 +7261,27 @@
         <v>3</v>
       </c>
       <c r="B22" s="1">
-        <f>AVERAGE(E5:F5)</f>
+        <f t="shared" si="5"/>
         <v>23.20750000000001</v>
       </c>
       <c r="C22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D22">
-        <f>F5-E5</f>
+        <f t="shared" si="6"/>
         <v>3.4250000000000114</v>
       </c>
       <c r="E22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1E-3</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.29197080291970706</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8.5246949757578427E-5</v>
       </c>
     </row>
@@ -7142,27 +7290,27 @@
         <v>2</v>
       </c>
       <c r="B23" s="1">
-        <f>AVERAGE(E6:F6)</f>
+        <f t="shared" si="5"/>
         <v>17.704999999999998</v>
       </c>
       <c r="C23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D23">
-        <f>F6-E6</f>
+        <f t="shared" si="6"/>
         <v>3.9500000000000171</v>
       </c>
       <c r="E23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1E-3</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.25316455696202422</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6.4092292901778009E-5</v>
       </c>
     </row>
@@ -7171,27 +7319,27 @@
         <v>1</v>
       </c>
       <c r="B24" s="1">
-        <f>AVERAGE(E7:F7)</f>
+        <f t="shared" si="5"/>
         <v>8.5174999999999841</v>
       </c>
       <c r="C24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D24">
-        <f>F7-E7</f>
+        <f t="shared" si="6"/>
         <v>7.4449999999999932</v>
       </c>
       <c r="E24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1E-3</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.1343183344526529</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.8041414970134727E-5</v>
       </c>
     </row>
@@ -7281,19 +7429,19 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <f t="shared" ref="A35:A40" si="5">D19/(2*$D$29)</f>
+        <f t="shared" ref="A35:A40" si="11">D19/(2*$D$29)</f>
         <v>7.4669780153412024E-2</v>
       </c>
       <c r="B35" s="2">
-        <f t="shared" ref="B35:B40" si="6">SQRT(SUMSQ(0.005/(2*$D$29),D19*$E$29/(2*$D$29^2)))</f>
+        <f t="shared" ref="B35:B40" si="12">SQRT(SUMSQ(0.005/(2*$D$29),D19*$E$29/(2*$D$29^2)))</f>
         <v>4.483809995871107E-3</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" ref="C35:C40" si="7">2*$L$1^2/($L$3*B19)</f>
+        <f t="shared" ref="C35:C40" si="13">2*$L$1^2/($L$3*B19)</f>
         <v>8.711779068947588E-2</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" ref="D35:D40" si="8">SQRT(SUMSQ(2*2*$L$1*$M$1/($L$3*B19),2*$L$1^2*$M$3/($L$3^2*B19),2*$L$1^2*0.01/($L$3*B19^2)))</f>
+        <f t="shared" ref="D35:D40" si="14">SQRT(SUMSQ(2*2*$L$1*$M$1/($L$3*B19),2*$L$1^2*$M$3/($L$3^2*B19),2*$L$1^2*0.01/($L$3*B19^2)))</f>
         <v>9.2715996486647989E-4</v>
       </c>
       <c r="F35" s="5">
@@ -7328,37 +7476,37 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8.1094522231622099E-2</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4.8692305912752245E-3</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>9.6270052969774769E-2</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.0246482592213316E-3</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8.4949367478546686E-2</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>5.1004960127650203E-3</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.10903780201830682</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.1606908234126883E-3</v>
       </c>
       <c r="F37">
@@ -7370,19 +7518,19 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>9.779885163496603E-2</v>
       </c>
       <c r="B38" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>5.8714347916954341E-3</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.12921737153973858</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.3758237287854066E-3</v>
       </c>
       <c r="I38" t="s">
@@ -7394,19 +7542,19 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.11278991648412151</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6.7709389335771997E-3</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.16937656876636459</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.8044733958776274E-3</v>
       </c>
       <c r="F39" t="s">
@@ -7426,19 +7574,19 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.21258757676564058</v>
       </c>
       <c r="B40" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.275989562220955E-2</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.35207656589474495</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3.7683539876636513E-3</v>
       </c>
     </row>
@@ -7468,7 +7616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B401A1-45AB-4725-A5DC-56569E8C0634}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -7531,7 +7679,7 @@
         <v>6.5500000000000114</v>
       </c>
       <c r="H2" s="3">
-        <f>AVERAGE(D2,G2)</f>
+        <f t="shared" ref="H2:H7" si="0">AVERAGE(D2,G2)</f>
         <v>6.5500000000000114</v>
       </c>
       <c r="I2">
@@ -7553,7 +7701,7 @@
         <v>180.88</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D7" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D7" si="1">C3-B3</f>
         <v>14.219999999999999</v>
       </c>
       <c r="E3">
@@ -7563,18 +7711,18 @@
         <v>182.27500000000001</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G7" si="1">F3-E3</f>
+        <f t="shared" ref="G3:G7" si="2">F3-E3</f>
         <v>17.335000000000008</v>
       </c>
       <c r="H3" s="3">
-        <f>AVERAGE(D3,G3)</f>
+        <f t="shared" si="0"/>
         <v>15.777500000000003</v>
       </c>
       <c r="I3">
         <v>0.42</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J7" si="2">G3-D3</f>
+        <f t="shared" ref="J3:J7" si="3">G3-D3</f>
         <v>3.1150000000000091</v>
       </c>
       <c r="K3" s="3">
@@ -7597,7 +7745,7 @@
         <v>184.27</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.330000000000013</v>
       </c>
       <c r="E4">
@@ -7607,26 +7755,26 @@
         <v>185.29499999999999</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.299999999999983</v>
       </c>
       <c r="H4" s="3">
-        <f>AVERAGE(D4,G4)</f>
+        <f t="shared" si="0"/>
         <v>22.314999999999998</v>
       </c>
       <c r="I4">
         <v>0.42</v>
       </c>
       <c r="J4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9699999999999704</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" ref="K4:K7" si="3">1/J4</f>
+        <f t="shared" ref="K4:K7" si="4">1/J4</f>
         <v>0.50761421319797717</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" ref="L4:L7" si="4">0.3*K4*K4</f>
+        <f t="shared" ref="L4:L7" si="5">0.3*K4*K4</f>
         <v>7.7301656832180432E-2</v>
       </c>
     </row>
@@ -7641,7 +7789,7 @@
         <v>186.85</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26.319999999999993</v>
       </c>
       <c r="E5">
@@ -7651,26 +7799,26 @@
         <v>187.69</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27.990000000000009</v>
       </c>
       <c r="H5" s="3">
-        <f>AVERAGE(D5,G5)</f>
+        <f t="shared" si="0"/>
         <v>27.155000000000001</v>
       </c>
       <c r="I5">
         <v>0.42</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6700000000000159</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.59880239520957512</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10756929255261725</v>
       </c>
     </row>
@@ -7685,7 +7833,7 @@
         <v>188.95</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30.589999999999975</v>
       </c>
       <c r="E6">
@@ -7695,26 +7843,26 @@
         <v>189.63</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.939999999999998</v>
       </c>
       <c r="H6" s="3">
-        <f>AVERAGE(D6,G6)</f>
+        <f t="shared" si="0"/>
         <v>31.264999999999986</v>
       </c>
       <c r="I6">
         <v>0.42</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3500000000000227</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.74074074074072827</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16460905349793684</v>
       </c>
     </row>
@@ -7729,7 +7877,7 @@
         <v>190.66</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34.039999999999992</v>
       </c>
       <c r="E7">
@@ -7739,26 +7887,26 @@
         <v>191.24</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.150000000000006</v>
       </c>
       <c r="H7" s="3">
-        <f>AVERAGE(D7,G7)</f>
+        <f t="shared" si="0"/>
         <v>34.594999999999999</v>
       </c>
       <c r="I7">
         <v>0.42</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1100000000000136</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.90090090090088981</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.24348672997321047</v>
       </c>
     </row>
@@ -7772,8 +7920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA07482D-3019-4FC1-B389-B17E3E7C8002}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8126,174 +8274,168 @@
       <c r="A19">
         <v>6</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <f>AVERAGE(E2:F2)</f>
         <v>33.632500000000007</v>
       </c>
       <c r="C19">
-        <f>0.0005</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D19">
+        <v>0.03</v>
+      </c>
+      <c r="D19" s="3">
         <f t="shared" ref="D19:D24" si="5">F2-E2</f>
         <v>1.0349999999999966</v>
       </c>
       <c r="E19">
-        <f>2*0.0005</f>
-        <v>1E-3</v>
-      </c>
-      <c r="F19" s="1">
+        <f>2*0.03</f>
+        <v>0.06</v>
+      </c>
+      <c r="F19" s="3">
         <f t="shared" ref="F19:F24" si="6">1/D19</f>
         <v>0.96618357487923023</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="3">
         <f>E19/D19^2</f>
-        <v>9.335107003664091E-4</v>
+        <v>5.6010642021984539E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <f t="shared" ref="B20:B24" si="7">AVERAGE(E3:F3)</f>
         <v>30.284999999999982</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:C24" si="8">0.0005</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D20">
+        <v>0.03</v>
+      </c>
+      <c r="D20" s="3">
         <f t="shared" si="5"/>
         <v>1.1099999999999852</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:E24" si="9">2*0.0005</f>
-        <v>1E-3</v>
-      </c>
-      <c r="F20" s="1">
+        <f t="shared" ref="E20:E24" si="8">2*0.03</f>
+        <v>0.06</v>
+      </c>
+      <c r="F20" s="3">
         <f t="shared" si="6"/>
         <v>0.9009009009009129</v>
       </c>
-      <c r="G20" s="1">
-        <f t="shared" ref="G20:G24" si="10">E20/D20^2</f>
-        <v>8.1162243324407659E-4</v>
+      <c r="G20" s="3">
+        <f t="shared" ref="G20:G24" si="9">E20/D20^2</f>
+        <v>4.8697345994644592E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <f t="shared" si="7"/>
         <v>26.597499999999997</v>
       </c>
       <c r="C21">
-        <f t="shared" si="8"/>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D21">
+        <v>0.03</v>
+      </c>
+      <c r="D21" s="3">
         <f t="shared" si="5"/>
         <v>1.1649999999999636</v>
       </c>
       <c r="E21">
-        <f t="shared" si="9"/>
-        <v>1E-3</v>
-      </c>
-      <c r="F21" s="1">
+        <f t="shared" si="8"/>
+        <v>0.06</v>
+      </c>
+      <c r="F21" s="3">
         <f t="shared" si="6"/>
         <v>0.85836909871247313</v>
       </c>
-      <c r="G21" s="1">
-        <f t="shared" si="10"/>
-        <v>7.3679750962446348E-4</v>
+      <c r="G21" s="3">
+        <f t="shared" si="9"/>
+        <v>4.4207850577467803E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <f t="shared" si="7"/>
         <v>22.272500000000008</v>
       </c>
       <c r="C22">
-        <f t="shared" si="8"/>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D22">
+        <v>0.03</v>
+      </c>
+      <c r="D22" s="3">
         <f t="shared" si="5"/>
         <v>1.5550000000000068</v>
       </c>
       <c r="E22">
-        <f t="shared" si="9"/>
-        <v>1E-3</v>
-      </c>
-      <c r="F22" s="1">
+        <f t="shared" si="8"/>
+        <v>0.06</v>
+      </c>
+      <c r="F22" s="3">
         <f t="shared" si="6"/>
         <v>0.64308681672025436</v>
       </c>
-      <c r="G22" s="1">
-        <f t="shared" si="10"/>
-        <v>4.1356065383939006E-4</v>
+      <c r="G22" s="3">
+        <f t="shared" si="9"/>
+        <v>2.4813639230363404E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="3">
         <f t="shared" si="7"/>
         <v>16.602499999999992</v>
       </c>
       <c r="C23">
-        <f t="shared" si="8"/>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D23">
+        <v>0.03</v>
+      </c>
+      <c r="D23" s="3">
         <f t="shared" si="5"/>
         <v>1.7450000000000045</v>
       </c>
       <c r="E23">
-        <f t="shared" si="9"/>
-        <v>1E-3</v>
-      </c>
-      <c r="F23" s="1">
+        <f t="shared" si="8"/>
+        <v>0.06</v>
+      </c>
+      <c r="F23" s="3">
         <f t="shared" si="6"/>
         <v>0.57306590257879508</v>
       </c>
-      <c r="G23" s="1">
-        <f t="shared" si="10"/>
-        <v>3.2840452869844903E-4</v>
+      <c r="G23" s="3">
+        <f t="shared" si="9"/>
+        <v>1.9704271721906943E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <f t="shared" si="7"/>
         <v>7.3174999999999955</v>
       </c>
       <c r="C24">
-        <f t="shared" si="8"/>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D24">
+        <v>0.03</v>
+      </c>
+      <c r="D24" s="3">
         <f t="shared" si="5"/>
         <v>5.0450000000000159</v>
       </c>
       <c r="E24">
-        <f t="shared" si="9"/>
-        <v>1E-3</v>
-      </c>
-      <c r="F24" s="8">
+        <f t="shared" si="8"/>
+        <v>0.06</v>
+      </c>
+      <c r="F24" s="3">
         <f t="shared" si="6"/>
         <v>0.19821605550049493</v>
       </c>
-      <c r="G24" s="8">
-        <f t="shared" si="10"/>
-        <v>3.9289604658175285E-5</v>
+      <c r="G24" s="2">
+        <f t="shared" si="9"/>
+        <v>2.3573762794905171E-3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -8382,19 +8524,19 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <f t="shared" ref="A35:A40" si="11">D19/(2*$D$29)</f>
+        <f t="shared" ref="A35:A40" si="10">D19/(2*$D$29)</f>
         <v>9.3029410890627717E-2</v>
       </c>
       <c r="B35" s="2">
-        <f t="shared" ref="B35:B40" si="12">SQRT(SUMSQ(0.005/(2*$D$29),D19*$E$29/(2*$D$29^2)))</f>
+        <f t="shared" ref="B35:B40" si="11">SQRT(SUMSQ(0.005/(2*$D$29),D19*$E$29/(2*$D$29^2)))</f>
         <v>6.6073095542113708E-3</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" ref="C35:C40" si="13">2*$L$1^2/($L$3*B19)</f>
+        <f t="shared" ref="C35:C40" si="12">2*$L$1^2/($L$3*B19)</f>
         <v>8.9164116554180745E-2</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" ref="D35:D40" si="14">SQRT(SUMSQ(2*2*$L$1*$M$1/($L$3*B19),2*$L$1^2*$M$3/($L$3^2*B19),2*$L$1^2*0.01/($L$3*B19^2)))</f>
+        <f t="shared" ref="D35:D40" si="13">SQRT(SUMSQ(2*2*$L$1*$M$1/($L$3*B19),2*$L$1^2*$M$3/($L$3^2*B19),2*$L$1^2*0.01/($L$3*B19^2)))</f>
         <v>9.4895499962381982E-4</v>
       </c>
       <c r="F35" s="5">
@@ -8429,37 +8571,37 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
+        <f t="shared" si="10"/>
+        <v>9.9770672549367861E-2</v>
+      </c>
+      <c r="B36" s="2">
         <f t="shared" si="11"/>
-        <v>9.9770672549367861E-2</v>
-      </c>
-      <c r="B36" s="2">
+        <v>7.0839594990895335E-3</v>
+      </c>
+      <c r="C36" s="1">
         <f t="shared" si="12"/>
-        <v>7.0839594990895335E-3</v>
-      </c>
-      <c r="C36" s="1">
+        <v>9.9019717682301028E-2</v>
+      </c>
+      <c r="D36" s="1">
         <f t="shared" si="13"/>
-        <v>9.9019717682301028E-2</v>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" si="14"/>
         <v>1.0539420326260019E-3</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
+        <f t="shared" si="10"/>
+        <v>0.10471426443244278</v>
+      </c>
+      <c r="B37" s="2">
         <f t="shared" si="11"/>
-        <v>0.10471426443244278</v>
-      </c>
-      <c r="B37" s="2">
+        <v>7.4335869772841146E-3</v>
+      </c>
+      <c r="C37" s="1">
         <f t="shared" si="12"/>
-        <v>7.4335869772841146E-3</v>
-      </c>
-      <c r="C37" s="1">
+        <v>0.11274789547921742</v>
+      </c>
+      <c r="D37" s="1">
         <f t="shared" si="13"/>
-        <v>0.11274789547921742</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="14"/>
         <v>1.2002326604699126E-3</v>
       </c>
       <c r="F37">
@@ -8471,19 +8613,19 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
+        <f t="shared" si="10"/>
+        <v>0.1397688250579007</v>
+      </c>
+      <c r="B38" s="3">
         <f t="shared" si="11"/>
-        <v>0.1397688250579007</v>
-      </c>
-      <c r="B38" s="3">
+        <v>9.9141255591451601E-3</v>
+      </c>
+      <c r="C38" s="1">
         <f t="shared" si="12"/>
-        <v>9.9141255591451601E-3</v>
-      </c>
-      <c r="C38" s="1">
+        <v>0.13464191940772177</v>
+      </c>
+      <c r="D38" s="1">
         <f t="shared" si="13"/>
-        <v>0.13464191940772177</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="14"/>
         <v>1.433681467436578E-3</v>
       </c>
       <c r="I38" t="s">
@@ -8495,19 +8637,19 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
+        <f t="shared" si="10"/>
+        <v>0.15684668792671144</v>
+      </c>
+      <c r="B39" s="2">
         <f t="shared" si="11"/>
-        <v>0.15684668792671144</v>
-      </c>
-      <c r="B39" s="2">
+        <v>1.1123143832143812E-2</v>
+      </c>
+      <c r="C39" s="2">
         <f t="shared" si="12"/>
-        <v>1.1123143832143812E-2</v>
-      </c>
-      <c r="C39" s="2">
+        <v>0.18062413190835633</v>
+      </c>
+      <c r="D39" s="2">
         <f t="shared" si="13"/>
-        <v>0.18062413190835633</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="14"/>
         <v>1.9246716986183144E-3</v>
       </c>
       <c r="F39" t="s">
@@ -8527,19 +8669,19 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
+        <f t="shared" si="10"/>
+        <v>0.45346220091132355</v>
+      </c>
+      <c r="B40" s="3">
         <f t="shared" si="11"/>
-        <v>0.45346220091132355</v>
-      </c>
-      <c r="B40" s="3">
+        <v>3.2135198865087838E-2</v>
+      </c>
+      <c r="C40" s="2">
         <f t="shared" si="12"/>
-        <v>3.2135198865087838E-2</v>
-      </c>
-      <c r="C40" s="2">
+        <v>0.40981375469880238</v>
+      </c>
+      <c r="D40" s="2">
         <f t="shared" si="13"/>
-        <v>0.40981375469880238</v>
-      </c>
-      <c r="D40" s="2">
-        <f t="shared" si="14"/>
         <v>4.3956826673939289E-3</v>
       </c>
     </row>
